--- a/queries/AC Cruise Speed 2.xlsx
+++ b/queries/AC Cruise Speed 2.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Git 2\queries\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE7C89F-0FAB-4298-840C-A82C00257397}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="390" windowWidth="23265" windowHeight="15480" tabRatio="372" xr2:uid="{97B7D3C4-B526-402C-A837-51CD69168376}"/>
+    <workbookView xWindow="4230" yWindow="390" windowWidth="19440" windowHeight="15480" tabRatio="372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>AC Type</t>
   </si>
@@ -173,21 +167,6 @@
     <t>B763</t>
   </si>
   <si>
-    <t>GMI2209</t>
-  </si>
-  <si>
-    <t>IBE31DD</t>
-  </si>
-  <si>
-    <t>IBE31DP</t>
-  </si>
-  <si>
-    <t>SBI795</t>
-  </si>
-  <si>
-    <t>SBI797</t>
-  </si>
-  <si>
     <t>switch_40</t>
   </si>
   <si>
@@ -212,18 +191,12 @@
     <t>DLH681</t>
   </si>
   <si>
-    <t>DLH1781</t>
-  </si>
-  <si>
     <t>DLH1835</t>
   </si>
   <si>
     <t>DLH2557</t>
   </si>
   <si>
-    <t>NLY1GG</t>
-  </si>
-  <si>
     <t>NLY6WW</t>
   </si>
   <si>
@@ -237,9 +210,6 @@
   </si>
   <si>
     <t>FL280</t>
-  </si>
-  <si>
-    <t>TRA9352</t>
   </si>
   <si>
     <t>DLH587</t>
@@ -257,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,80 +368,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -488,10 +391,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFF00"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="000000"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -772,18 +675,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FE0951-F683-4CE4-ABFE-1B2CAC3CD93A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,13 +736,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>10</v>
@@ -890,10 +793,10 @@
         <v>25</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="4" t="s">
         <v>26</v>
@@ -1008,19 +911,16 @@
         <v>0.82</v>
       </c>
       <c r="Z3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -1052,19 +952,16 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="Z4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AA4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AC4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1077,20 +974,11 @@
       <c r="O5">
         <v>0.66</v>
       </c>
-      <c r="Z5" t="s">
-        <v>72</v>
-      </c>
       <c r="AA5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AB5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="8"/>
     </row>
@@ -1105,16 +993,10 @@
       </c>
       <c r="W6" s="10"/>
       <c r="AA6" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC6" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="AE6" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="AF6"/>
     </row>
@@ -1135,10 +1017,10 @@
         <v>0.84</v>
       </c>
       <c r="AA7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1151,8 +1033,8 @@
       <c r="S8">
         <v>0.81899999999999995</v>
       </c>
-      <c r="AB8" t="s">
-        <v>66</v>
+      <c r="AA8" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1206,9 +1088,6 @@
       </c>
       <c r="X9">
         <v>0.81899999999999995</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">

--- a/queries/AC Cruise Speed 2.xlsx
+++ b/queries/AC Cruise Speed 2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Git 2\queries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17589F45-35BA-48EB-A637-E1C4E29232C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="390" windowWidth="19440" windowHeight="15480" tabRatio="372"/>
+    <workbookView xWindow="1065" yWindow="135" windowWidth="27585" windowHeight="15600" tabRatio="372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -227,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -675,18 +676,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,16 +1184,16 @@
         <v>41</v>
       </c>
       <c r="V15">
-        <v>0.85899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="W15" s="6">
-        <v>0.85899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="X15">
-        <v>0.85899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="Y15">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">

--- a/queries/AC Cruise Speed 2.xlsx
+++ b/queries/AC Cruise Speed 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Git 2\queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17589F45-35BA-48EB-A637-E1C4E29232C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C5D76-4B0E-4D4C-88D6-8E0C1301FFAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="135" windowWidth="27585" windowHeight="15600" tabRatio="372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="60" windowWidth="16380" windowHeight="15480" tabRatio="372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>AC Type</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>EZY81NL</t>
+  </si>
+  <si>
+    <t>TRA9352</t>
+  </si>
+  <si>
+    <t>DLH87P</t>
+  </si>
+  <si>
+    <t>LJ35</t>
+  </si>
+  <si>
+    <t>JEI252</t>
   </si>
 </sst>
 </file>
@@ -346,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,12 +382,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -392,10 +473,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFF00"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -687,7 +768,7 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,6 +1056,9 @@
       <c r="O5">
         <v>0.66</v>
       </c>
+      <c r="Z5" t="s">
+        <v>66</v>
+      </c>
       <c r="AA5" t="s">
         <v>53</v>
       </c>
@@ -993,6 +1077,9 @@
         <v>0.64</v>
       </c>
       <c r="W6" s="10"/>
+      <c r="Z6" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="AA6" s="8" t="s">
         <v>57</v>
       </c>
@@ -1005,6 +1092,15 @@
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="N7">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="O7">
+        <v>0.73</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.747</v>
+      </c>
       <c r="Q7">
         <v>0.75900000000000001</v>
       </c>
@@ -1089,6 +1185,9 @@
       </c>
       <c r="X9">
         <v>0.81899999999999995</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -1254,7 +1353,15 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="I21">
+        <v>0.46700000000000003</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
